--- a/biology/Botanique/Gagea_granatellii/Gagea_granatellii.xlsx
+++ b/biology/Botanique/Gagea_granatellii/Gagea_granatellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagée de Granatelli
 Gagea granatellii (en français la Gagée de Granatelli) est une espèce de plantes à bulbe du genre des gagées et de la famille des Liliacées.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1839 par le botaniste italien Filippo Parlatore sous le nom Ornithogalum granatellii, puis déplacée par lui-même dans le genre Gagea en 1845[1].
-Synonymes
-Basionyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1839 par le botaniste italien Filippo Parlatore sous le nom Ornithogalum granatellii, puis déplacée par lui-même dans le genre Gagea en 1845.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Basionyme
 Ornithogalum granatellii Parl., Diar. l 'Occhio 11: 85 (1839).
 Homotypique
 Gagea arvensis subsp. granatellii (Parl.) K.Richt., Pl. Eur. 1: 197 (1890).
@@ -525,9 +574,43 @@
 Hétérotypique
 Gagea chabertii var. foliosa A.Terracc., Boll. Soc. Orto Palermo, ser. 2, 3: 33 (1904).
 Gagea granatellii var. angustifolia A.Terracc., Bull. Herb. Boissier, sér. 2, 6: 106 (1906).
-Gagea granatellii var. pumila A.Terracc., Bull. Herb. Boissier, sér. 2, 6: 107 (1906).
-Taxons inférieurs
-L'espèce comprend plusieurs sous-espèces et variétés[2].
+Gagea granatellii var. pumila A.Terracc., Bull. Herb. Boissier, sér. 2, 6: 107 (1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons inférieurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce comprend plusieurs sous-espèces et variétés.
 Sous-espèces
 Gagea granatellii subsp. chabertii
 Gagea granatellii subsp. maroccana
@@ -539,63 +622,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gagea_granatellii</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gagea_granatellii</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gagea granatellii est présente dans le Sud de l'Europe (en France, dans les Pyrénées-Orientales, l'Aude, l'Hérault et la Corse, en Italie dans le sud du pays et en Sardaigne et en Sicile) et en Afrique du Nord (nord-est de l'Algérie et nord-ouest de la Tunisie)[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -617,12 +643,75 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gagea granatellii est présente dans le Sud de l'Europe (en France, dans les Pyrénées-Orientales, l'Aude, l'Hérault et la Corse, en Italie dans le sud du pays et en Sardaigne et en Sicile) et en Afrique du Nord (nord-est de l'Algérie et nord-ouest de la Tunisie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gagea_granatellii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gagea granatellii est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gagea granatellii est évaluée Espèce de préoccupation mineure (LC) sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019.
 </t>
         </is>
       </c>
